--- a/delas.xlsx
+++ b/delas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>batch</t>
   </si>
@@ -40,7 +40,10 @@
     <t>l</t>
   </si>
   <si>
-    <t>r</t>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>ap</t>
   </si>
   <si>
     <t>filt</t>
@@ -52,13 +55,16 @@
     <t>ksize</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>predict</t>
   </si>
   <si>
+    <t>ratio</t>
+  </si>
+  <si>
     <t>delas</t>
+  </si>
+  <si>
+    <t>siemans</t>
   </si>
   <si>
     <t>GE</t>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,16 +486,19 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -512,31 +521,31 @@
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2">
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>1.617893102021586</v>
-      </c>
       <c r="N2">
-        <v>1.181832667314973</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0.8802417941502324</v>
       </c>
+      <c r="P2">
+        <v>1.181832667314973</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>120</v>
@@ -559,31 +568,31 @@
       <c r="J3">
         <v>8</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>1.617893102021586</v>
-      </c>
       <c r="N3">
-        <v>1.122411423234414</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0.9515382185423297</v>
       </c>
+      <c r="P3">
+        <v>1.122411423234414</v>
+      </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>120</v>
@@ -606,31 +615,31 @@
       <c r="J4">
         <v>8</v>
       </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4">
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>1.617893102021586</v>
-      </c>
       <c r="N4">
-        <v>1.126688426235958</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0.8802417941502324</v>
       </c>
+      <c r="P4">
+        <v>1.126688426235958</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>120</v>
@@ -653,20 +662,67 @@
       <c r="J5">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>1.617893102021586</v>
-      </c>
       <c r="N5">
-        <v>0.9241997383499142</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>1.327930182564135</v>
+      </c>
+      <c r="P5">
+        <v>0.9241997383499142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>20.8</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>24.57</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1.035402067932775</v>
+      </c>
+      <c r="P6">
+        <v>0.8176155647931458</v>
       </c>
     </row>
   </sheetData>
